--- a/INACAPestadisticaSede/rect/11_Ñuñoa.xlsx
+++ b/INACAPestadisticaSede/rect/11_Ñuñoa.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\INACAPestadisticaSede\rect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47E8863-F640-44B8-A532-9CE7F8D1AA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EstabporTipoEmision" sheetId="1" r:id="rId1"/>
-    <sheet name="EstabporRubroTipoEmision" sheetId="2" r:id="rId2"/>
-    <sheet name="DetalleEstablecimientos" sheetId="3" r:id="rId3"/>
+    <sheet name="INICIO" sheetId="4" r:id="rId1"/>
+    <sheet name="EstabporTipoEmision" sheetId="1" r:id="rId2"/>
+    <sheet name="EstabporRubroTipoEmision" sheetId="2" r:id="rId3"/>
+    <sheet name="DetalleEstablecimientos" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="806">
   <si>
     <t>Comuna</t>
   </si>
@@ -1635,7 +1642,7 @@
     <t>BANCO DE CHILE PLAZA EGAÑA</t>
   </si>
   <si>
-    <t xml:space="preserve"> SENIOR SUITES LAS ENCINAS</t>
+    <t> SENIOR SUITES LAS ENCINAS</t>
   </si>
   <si>
     <t>COMUNIDAD EDIFICIO PROYECCION EGAÑA</t>
@@ -2401,13 +2408,46 @@
   </si>
   <si>
     <t>PIQUE CONSTRUCCION CRESCENTE ERRAZURIZ</t>
+  </si>
+  <si>
+    <t>Detalle de Bases de Datos de Establecimientos Generadores de Emisiones 2021 [MMA-RETC]</t>
+  </si>
+  <si>
+    <t>Seleccione alguna de las celdas coloreadas para ver los detalles. Puede regresar a esta página haciendo click en la celda INICIO dispuesta en cada tabla detallada.</t>
+  </si>
+  <si>
+    <t>Niveles</t>
+  </si>
+  <si>
+    <t>Vínculo</t>
+  </si>
+  <si>
+    <t>Establecimientos</t>
+  </si>
+  <si>
+    <t>Tipo de Emisión</t>
+  </si>
+  <si>
+    <t>EstabporTipoEmision</t>
+  </si>
+  <si>
+    <t>EstabporRubroTipoEmision</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>DetalleEstablecimientos</t>
+  </si>
+  <si>
+    <t>INICIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2423,16 +2463,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2455,26 +2536,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{25E0F257-78E5-447F-87F2-BAE50C959874}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2516,7 +2714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2548,9 +2746,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2582,6 +2798,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2757,1334 +2991,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A81E4F-474F-477A-A308-8553DEFFFE9D}">
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>73</v>
-      </c>
-      <c r="D3">
-        <v>76</v>
-      </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>41</v>
-      </c>
-      <c r="H3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="H5">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <v>148</v>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>804</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" location="EstabporTipoEmision!A1" display="EstabporTipoEmision" xr:uid="{07D833AB-ABF9-4401-81FC-875182999ED0}"/>
+    <hyperlink ref="F6" location="EstabporRubroTipoEmision!A1" display="EstabporRubroTipoEmision" xr:uid="{CBA6BB10-EB27-443C-B9E7-671BD7901CE5}"/>
+    <hyperlink ref="F7" location="DetalleEstablecimientos!A1" display="DetalleEstablecimientos" xr:uid="{8BA6DCB1-C146-4D44-BD76-68CE4FD48310}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="D4">
         <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
-      <c r="I26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>12</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>9</v>
-      </c>
-      <c r="H28">
-        <v>7</v>
-      </c>
-      <c r="I28">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>17</v>
-      </c>
-      <c r="E44">
-        <v>14</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>5</v>
-      </c>
-      <c r="I45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>6</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>6</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{FF633841-5926-426C-B8A9-F185560B7893}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H552"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4092,6 +3288,1174 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{F8875A42-4DC4-469D-8921-E38FBA8D8446}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K552"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4109,8 +4473,11 @@
       <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" s="13" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4503,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4162,7 +4529,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4188,7 +4555,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4214,7 +4581,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4240,7 +4607,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4266,7 +4633,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4292,7 +4659,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4318,7 +4685,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4344,7 +4711,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4370,7 +4737,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4396,7 +4763,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4422,7 +4789,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4448,7 +4815,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4474,7 +4841,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4500,7 +4867,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4526,7 +4893,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4552,7 +4919,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4578,7 +4945,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4604,7 +4971,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4630,7 +4997,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4656,7 +5023,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4682,7 +5049,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4708,7 +5075,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4734,7 +5101,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4760,7 +5127,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4786,7 +5153,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4812,7 +5179,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4838,7 +5205,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4864,7 +5231,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -4890,7 +5257,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4916,7 +5283,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -4942,7 +5309,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4968,7 +5335,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4994,7 +5361,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -5020,7 +5387,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -5046,7 +5413,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -5072,7 +5439,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -5098,7 +5465,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -5124,7 +5491,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5150,7 +5517,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -5176,7 +5543,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -5202,7 +5569,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +5595,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -5254,7 +5621,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -5280,7 +5647,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -5306,7 +5673,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -5332,7 +5699,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5725,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -5384,7 +5751,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -5410,7 +5777,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -5436,7 +5803,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -5462,7 +5829,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -5488,7 +5855,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -5514,7 +5881,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5540,7 +5907,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -5566,7 +5933,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -5592,7 +5959,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5618,7 +5985,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -5644,7 +6011,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -5670,7 +6037,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -5696,7 +6063,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -5722,7 +6089,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -5748,7 +6115,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -5774,7 +6141,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -5800,7 +6167,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5826,7 +6193,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5852,7 +6219,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -5878,7 +6245,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5904,7 +6271,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +6297,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -5956,7 +6323,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -5982,7 +6349,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -6008,7 +6375,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -6034,7 +6401,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6060,7 +6427,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -6086,7 +6453,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -6112,7 +6479,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -6138,7 +6505,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -6164,7 +6531,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -6190,7 +6557,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -6216,7 +6583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -6242,7 +6609,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -6268,7 +6635,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -6294,7 +6661,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -6320,7 +6687,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -6346,7 +6713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -6372,7 +6739,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -6398,7 +6765,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -6424,7 +6791,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -6450,7 +6817,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -6476,7 +6843,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -6502,7 +6869,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -6528,7 +6895,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -6554,7 +6921,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -6580,7 +6947,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -6606,7 +6973,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -6632,7 +6999,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -6658,7 +7025,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -6684,7 +7051,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -6710,7 +7077,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -6736,7 +7103,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -6762,7 +7129,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -6788,7 +7155,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6814,7 +7181,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -6840,7 +7207,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -6866,7 +7233,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -6892,7 +7259,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -6918,7 +7285,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -6944,7 +7311,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -6970,7 +7337,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -6996,7 +7363,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -7022,7 +7389,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -7048,7 +7415,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -7074,7 +7441,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -7100,7 +7467,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -7126,7 +7493,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -7152,7 +7519,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -7178,7 +7545,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -7204,7 +7571,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -7230,7 +7597,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -7256,7 +7623,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -7282,7 +7649,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -7308,7 +7675,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -7334,7 +7701,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -7360,7 +7727,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -7386,7 +7753,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -7412,7 +7779,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -7438,7 +7805,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -7464,7 +7831,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -7490,7 +7857,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -7516,7 +7883,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -7542,7 +7909,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -7568,7 +7935,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -7594,7 +7961,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -7620,7 +7987,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -7646,7 +8013,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -7672,7 +8039,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -7698,7 +8065,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -7724,7 +8091,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -7750,7 +8117,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -7776,7 +8143,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -7802,7 +8169,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -7828,7 +8195,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -7854,7 +8221,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -7880,7 +8247,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -7906,7 +8273,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -7932,7 +8299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -7958,7 +8325,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -7984,7 +8351,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -8010,7 +8377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -8036,7 +8403,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -8062,7 +8429,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -8088,7 +8455,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -8114,7 +8481,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -8140,7 +8507,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -8166,7 +8533,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -8192,7 +8559,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -8218,7 +8585,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -8244,7 +8611,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -8270,7 +8637,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -8296,7 +8663,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -8322,7 +8689,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -8348,7 +8715,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -8374,7 +8741,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -8400,7 +8767,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -8426,7 +8793,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -8452,7 +8819,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -8478,7 +8845,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -8504,7 +8871,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -8530,7 +8897,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -8556,7 +8923,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -8582,7 +8949,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -8608,7 +8975,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -8634,7 +9001,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -8660,7 +9027,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -8686,7 +9053,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -8712,7 +9079,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -8738,7 +9105,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -8764,7 +9131,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -8790,7 +9157,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -8816,7 +9183,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -8842,7 +9209,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -8868,7 +9235,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -8894,7 +9261,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -8920,7 +9287,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -8946,7 +9313,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -8972,7 +9339,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -8998,7 +9365,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -9024,7 +9391,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -9050,7 +9417,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -9076,7 +9443,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -9102,7 +9469,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -9128,7 +9495,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -9154,7 +9521,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -9180,7 +9547,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -9206,7 +9573,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -9232,7 +9599,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -9258,7 +9625,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -9284,7 +9651,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -9310,7 +9677,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -9336,7 +9703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -9362,7 +9729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -9388,7 +9755,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -9414,7 +9781,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -9440,7 +9807,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -9466,7 +9833,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -9492,7 +9859,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -9518,7 +9885,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -9544,7 +9911,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -9570,7 +9937,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -9596,7 +9963,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -9622,7 +9989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -9648,7 +10015,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -9674,7 +10041,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -9700,7 +10067,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -9726,7 +10093,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -9752,7 +10119,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -9778,7 +10145,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -9804,7 +10171,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -9830,7 +10197,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -9856,7 +10223,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -9882,7 +10249,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -9908,7 +10275,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -9934,7 +10301,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -9960,7 +10327,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -9986,7 +10353,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -10012,7 +10379,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -10038,7 +10405,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -10064,7 +10431,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -10090,7 +10457,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -10116,7 +10483,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -10142,7 +10509,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -10168,7 +10535,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -10194,7 +10561,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -10220,7 +10587,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -10246,7 +10613,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -10272,7 +10639,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -10298,7 +10665,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -10324,7 +10691,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -10350,7 +10717,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -10376,7 +10743,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -10402,7 +10769,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -10428,7 +10795,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -10454,7 +10821,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -10480,7 +10847,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -10506,7 +10873,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -10532,7 +10899,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -10558,7 +10925,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -10584,7 +10951,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -10610,7 +10977,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -10636,7 +11003,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -10662,7 +11029,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -10688,7 +11055,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -10714,7 +11081,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -10740,7 +11107,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -10766,7 +11133,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -10792,7 +11159,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -10818,7 +11185,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -10844,7 +11211,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -10870,7 +11237,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -10896,7 +11263,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -10922,7 +11289,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -10948,7 +11315,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -10974,7 +11341,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -11000,7 +11367,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -11026,7 +11393,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -11052,7 +11419,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -11078,7 +11445,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -11104,7 +11471,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -11130,7 +11497,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -11156,7 +11523,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -11182,7 +11549,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -11208,7 +11575,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -11234,7 +11601,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -11260,7 +11627,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -11286,7 +11653,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -11312,7 +11679,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -11338,7 +11705,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -11364,7 +11731,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -11390,7 +11757,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -11416,7 +11783,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -11442,7 +11809,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -11468,7 +11835,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -11494,7 +11861,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -11520,7 +11887,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -11546,7 +11913,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -11572,7 +11939,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -11598,7 +11965,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -11624,7 +11991,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -11650,7 +12017,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -11676,7 +12043,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -11702,7 +12069,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -11728,7 +12095,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -11754,7 +12121,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -11780,7 +12147,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -11806,7 +12173,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -11832,7 +12199,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -11858,7 +12225,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -11884,7 +12251,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -11910,7 +12277,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -11936,7 +12303,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -11962,7 +12329,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -11988,7 +12355,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -12014,7 +12381,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -12040,7 +12407,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -12066,7 +12433,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -12092,7 +12459,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -12118,7 +12485,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -12144,7 +12511,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -12170,7 +12537,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -12196,7 +12563,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -12222,7 +12589,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -12248,7 +12615,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -12274,7 +12641,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -12300,7 +12667,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -12326,7 +12693,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -12352,7 +12719,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -12378,7 +12745,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -12404,7 +12771,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -12430,7 +12797,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -12456,7 +12823,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -12482,7 +12849,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -12508,7 +12875,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -12534,7 +12901,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -12560,7 +12927,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -12586,7 +12953,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -12612,7 +12979,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -12638,7 +13005,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -12664,7 +13031,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -12690,7 +13057,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -12716,7 +13083,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -12742,7 +13109,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>8</v>
       </c>
@@ -12768,7 +13135,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -12794,7 +13161,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -12820,7 +13187,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>8</v>
       </c>
@@ -12846,7 +13213,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -12872,7 +13239,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>8</v>
       </c>
@@ -12898,7 +13265,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -12924,7 +13291,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -12950,7 +13317,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>8</v>
       </c>
@@ -12976,7 +13343,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>8</v>
       </c>
@@ -13002,7 +13369,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>8</v>
       </c>
@@ -13028,7 +13395,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -13054,7 +13421,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>8</v>
       </c>
@@ -13080,7 +13447,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -13106,7 +13473,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -13132,7 +13499,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>8</v>
       </c>
@@ -13158,7 +13525,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -13184,7 +13551,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -13210,7 +13577,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>8</v>
       </c>
@@ -13236,7 +13603,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -13262,7 +13629,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>8</v>
       </c>
@@ -13288,7 +13655,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -13314,7 +13681,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>8</v>
       </c>
@@ -13340,7 +13707,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>8</v>
       </c>
@@ -13366,7 +13733,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>8</v>
       </c>
@@ -13392,7 +13759,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>8</v>
       </c>
@@ -13418,7 +13785,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>8</v>
       </c>
@@ -13444,7 +13811,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>8</v>
       </c>
@@ -13470,7 +13837,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -13496,7 +13863,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>8</v>
       </c>
@@ -13522,7 +13889,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>8</v>
       </c>
@@ -13548,7 +13915,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>8</v>
       </c>
@@ -13574,7 +13941,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -13600,7 +13967,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -13626,7 +13993,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -13652,7 +14019,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -13678,7 +14045,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -13704,7 +14071,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -13730,7 +14097,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>8</v>
       </c>
@@ -13756,7 +14123,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>8</v>
       </c>
@@ -13782,7 +14149,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -13808,7 +14175,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>8</v>
       </c>
@@ -13834,7 +14201,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -13860,7 +14227,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -13886,7 +14253,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>8</v>
       </c>
@@ -13912,7 +14279,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -13938,7 +14305,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -13964,7 +14331,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>8</v>
       </c>
@@ -13990,7 +14357,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>8</v>
       </c>
@@ -14016,7 +14383,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>8</v>
       </c>
@@ -14042,7 +14409,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -14068,7 +14435,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>8</v>
       </c>
@@ -14094,7 +14461,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>8</v>
       </c>
@@ -14120,7 +14487,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>8</v>
       </c>
@@ -14146,7 +14513,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>8</v>
       </c>
@@ -14172,7 +14539,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>8</v>
       </c>
@@ -14198,7 +14565,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>8</v>
       </c>
@@ -14224,7 +14591,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>8</v>
       </c>
@@ -14250,7 +14617,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -14276,7 +14643,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>8</v>
       </c>
@@ -14302,7 +14669,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -14328,7 +14695,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>8</v>
       </c>
@@ -14354,7 +14721,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>8</v>
       </c>
@@ -14380,7 +14747,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>8</v>
       </c>
@@ -14406,7 +14773,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -14432,7 +14799,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -14458,7 +14825,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>8</v>
       </c>
@@ -14484,7 +14851,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -14510,7 +14877,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -14536,7 +14903,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -14562,7 +14929,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -14588,7 +14955,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14981,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>8</v>
       </c>
@@ -14640,7 +15007,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -14666,7 +15033,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>8</v>
       </c>
@@ -14692,7 +15059,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -14718,7 +15085,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -14744,7 +15111,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -14770,7 +15137,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -14796,7 +15163,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -14822,7 +15189,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -14848,7 +15215,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>8</v>
       </c>
@@ -14874,7 +15241,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -14900,7 +15267,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -14926,7 +15293,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -14952,7 +15319,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -14978,7 +15345,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -15004,7 +15371,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>8</v>
       </c>
@@ -15030,7 +15397,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>8</v>
       </c>
@@ -15056,7 +15423,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>8</v>
       </c>
@@ -15082,7 +15449,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>8</v>
       </c>
@@ -15108,7 +15475,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>8</v>
       </c>
@@ -15134,7 +15501,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>8</v>
       </c>
@@ -15160,7 +15527,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>8</v>
       </c>
@@ -15186,7 +15553,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>8</v>
       </c>
@@ -15212,7 +15579,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>8</v>
       </c>
@@ -15238,7 +15605,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>8</v>
       </c>
@@ -15264,7 +15631,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -15290,7 +15657,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -15316,7 +15683,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>8</v>
       </c>
@@ -15342,7 +15709,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -15368,7 +15735,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>8</v>
       </c>
@@ -15394,7 +15761,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>8</v>
       </c>
@@ -15420,7 +15787,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>8</v>
       </c>
@@ -15446,7 +15813,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>8</v>
       </c>
@@ -15472,7 +15839,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>8</v>
       </c>
@@ -15498,7 +15865,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>8</v>
       </c>
@@ -15524,7 +15891,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -15550,7 +15917,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -15576,7 +15943,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>8</v>
       </c>
@@ -15602,7 +15969,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>8</v>
       </c>
@@ -15628,7 +15995,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>8</v>
       </c>
@@ -15654,7 +16021,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>8</v>
       </c>
@@ -15680,7 +16047,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>8</v>
       </c>
@@ -15706,7 +16073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>8</v>
       </c>
@@ -15732,7 +16099,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>8</v>
       </c>
@@ -15758,7 +16125,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -15784,7 +16151,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>8</v>
       </c>
@@ -15810,7 +16177,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>8</v>
       </c>
@@ -15836,7 +16203,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>8</v>
       </c>
@@ -15862,7 +16229,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -15888,7 +16255,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -15914,7 +16281,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>8</v>
       </c>
@@ -15940,7 +16307,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>8</v>
       </c>
@@ -15966,7 +16333,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>8</v>
       </c>
@@ -15992,7 +16359,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>8</v>
       </c>
@@ -16018,7 +16385,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>8</v>
       </c>
@@ -16044,7 +16411,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>8</v>
       </c>
@@ -16070,7 +16437,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>8</v>
       </c>
@@ -16096,7 +16463,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>8</v>
       </c>
@@ -16122,7 +16489,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>8</v>
       </c>
@@ -16148,7 +16515,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>8</v>
       </c>
@@ -16174,7 +16541,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>8</v>
       </c>
@@ -16200,7 +16567,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>8</v>
       </c>
@@ -16226,7 +16593,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>8</v>
       </c>
@@ -16252,7 +16619,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>8</v>
       </c>
@@ -16278,7 +16645,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>8</v>
       </c>
@@ -16304,7 +16671,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>8</v>
       </c>
@@ -16330,7 +16697,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>8</v>
       </c>
@@ -16356,7 +16723,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -16382,7 +16749,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>8</v>
       </c>
@@ -16408,7 +16775,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>8</v>
       </c>
@@ -16434,7 +16801,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>8</v>
       </c>
@@ -16460,7 +16827,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>8</v>
       </c>
@@ -16486,7 +16853,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>8</v>
       </c>
@@ -16512,7 +16879,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>8</v>
       </c>
@@ -16538,7 +16905,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>8</v>
       </c>
@@ -16564,7 +16931,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -16590,7 +16957,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>8</v>
       </c>
@@ -16616,7 +16983,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>8</v>
       </c>
@@ -16642,7 +17009,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>8</v>
       </c>
@@ -16668,7 +17035,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>8</v>
       </c>
@@ -16694,7 +17061,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>8</v>
       </c>
@@ -16720,7 +17087,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>8</v>
       </c>
@@ -16746,7 +17113,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>8</v>
       </c>
@@ -16772,7 +17139,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>8</v>
       </c>
@@ -16798,7 +17165,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>8</v>
       </c>
@@ -16824,7 +17191,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>8</v>
       </c>
@@ -16850,7 +17217,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>8</v>
       </c>
@@ -16876,7 +17243,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>8</v>
       </c>
@@ -16902,7 +17269,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>8</v>
       </c>
@@ -16928,7 +17295,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>8</v>
       </c>
@@ -16954,7 +17321,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>8</v>
       </c>
@@ -16980,7 +17347,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>8</v>
       </c>
@@ -17006,7 +17373,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>8</v>
       </c>
@@ -17032,7 +17399,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>8</v>
       </c>
@@ -17058,7 +17425,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>8</v>
       </c>
@@ -17084,7 +17451,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>8</v>
       </c>
@@ -17110,7 +17477,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>8</v>
       </c>
@@ -17136,7 +17503,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>8</v>
       </c>
@@ -17162,7 +17529,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>8</v>
       </c>
@@ -17188,7 +17555,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>8</v>
       </c>
@@ -17214,7 +17581,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>8</v>
       </c>
@@ -17240,7 +17607,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>8</v>
       </c>
@@ -17266,7 +17633,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -17292,7 +17659,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>8</v>
       </c>
@@ -17318,7 +17685,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>8</v>
       </c>
@@ -17344,7 +17711,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>8</v>
       </c>
@@ -17370,7 +17737,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>8</v>
       </c>
@@ -17396,7 +17763,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>8</v>
       </c>
@@ -17422,7 +17789,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>8</v>
       </c>
@@ -17448,7 +17815,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>8</v>
       </c>
@@ -17474,7 +17841,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>8</v>
       </c>
@@ -17500,7 +17867,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>8</v>
       </c>
@@ -17526,7 +17893,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>8</v>
       </c>
@@ -17552,7 +17919,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>8</v>
       </c>
@@ -17578,7 +17945,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>8</v>
       </c>
@@ -17604,7 +17971,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>8</v>
       </c>
@@ -17630,7 +17997,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>8</v>
       </c>
@@ -17656,7 +18023,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>8</v>
       </c>
@@ -17682,7 +18049,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>8</v>
       </c>
@@ -17708,7 +18075,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>8</v>
       </c>
@@ -17734,7 +18101,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>8</v>
       </c>
@@ -17760,7 +18127,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>8</v>
       </c>
@@ -17786,7 +18153,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>8</v>
       </c>
@@ -17812,7 +18179,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>8</v>
       </c>
@@ -17838,7 +18205,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>8</v>
       </c>
@@ -17864,7 +18231,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>8</v>
       </c>
@@ -17890,7 +18257,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>8</v>
       </c>
@@ -17916,7 +18283,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>8</v>
       </c>
@@ -17942,7 +18309,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>8</v>
       </c>
@@ -17968,7 +18335,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>8</v>
       </c>
@@ -17994,7 +18361,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>8</v>
       </c>
@@ -18020,7 +18387,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>8</v>
       </c>
@@ -18046,7 +18413,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>8</v>
       </c>
@@ -18072,7 +18439,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>8</v>
       </c>
@@ -18098,7 +18465,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>8</v>
       </c>
@@ -18124,7 +18491,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>8</v>
       </c>
@@ -18150,7 +18517,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>8</v>
       </c>
@@ -18176,7 +18543,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>8</v>
       </c>
@@ -18202,7 +18569,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>8</v>
       </c>
@@ -18228,7 +18595,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>8</v>
       </c>
@@ -18254,7 +18621,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>8</v>
       </c>
@@ -18280,7 +18647,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>8</v>
       </c>
@@ -18306,7 +18673,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -18332,7 +18699,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>8</v>
       </c>
@@ -18358,7 +18725,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>8</v>
       </c>
@@ -18384,7 +18751,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>8</v>
       </c>
@@ -18410,7 +18777,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -18437,6 +18804,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{ADA90D10-C479-4DD4-B13E-22C1D01677A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>